--- a/literature_downloads/inputs/list_keywords.xlsx
+++ b/literature_downloads/inputs/list_keywords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27030"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rbgkew-my.sharepoint.com/personal/f_civita_kew_org/Documents/Documents/work on corpus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D395764-96DD-4637-8576-11C13B303254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C0D9DE4-DF2A-46AE-A6BC-A9037FF9DBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{187C7D33-C53D-4D11-9B78-D2DF7A6923CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="2" xr2:uid="{187C7D33-C53D-4D11-9B78-D2DF7A6923CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Product related" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Excluded" sheetId="6" r:id="rId3"/>
     <sheet name="Kingdom specific" sheetId="4" r:id="rId4"/>
     <sheet name="Notes" sheetId="3" r:id="rId5"/>
-    <sheet name="OLD Product related" sheetId="2" r:id="rId6"/>
+    <sheet name="Products to add in future iters" sheetId="8" r:id="rId6"/>
+    <sheet name="OLD Product related" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="240">
   <si>
     <t>Keyword Type</t>
   </si>
@@ -94,6 +95,255 @@
     <t>immunoserum</t>
   </si>
   <si>
+    <t>toxicology</t>
+  </si>
+  <si>
+    <t>toxic</t>
+  </si>
+  <si>
+    <t>toxicity</t>
+  </si>
+  <si>
+    <t>toxicological</t>
+  </si>
+  <si>
+    <t>endotoxin</t>
+  </si>
+  <si>
+    <t>toxins</t>
+  </si>
+  <si>
+    <t>toxin</t>
+  </si>
+  <si>
+    <t>endotoxins</t>
+  </si>
+  <si>
+    <t>poisonous</t>
+  </si>
+  <si>
+    <t>poison</t>
+  </si>
+  <si>
+    <t>medicinal entity</t>
+  </si>
+  <si>
+    <t>medicinal plant</t>
+  </si>
+  <si>
+    <t>medicinal fungus</t>
+  </si>
+  <si>
+    <t>herbal medicine</t>
+  </si>
+  <si>
+    <t>herbal remedy</t>
+  </si>
+  <si>
+    <t>botanicals</t>
+  </si>
+  <si>
+    <t>ethnopharmacology</t>
+  </si>
+  <si>
+    <t>natural remedies</t>
+  </si>
+  <si>
+    <t>natural remedy</t>
+  </si>
+  <si>
+    <t>homeopathic</t>
+  </si>
+  <si>
+    <t>homeopathy</t>
+  </si>
+  <si>
+    <t>homeopath</t>
+  </si>
+  <si>
+    <t>homeopaths</t>
+  </si>
+  <si>
+    <t>traditional medicine</t>
+  </si>
+  <si>
+    <t>natural product</t>
+  </si>
+  <si>
+    <t>toxicology entity</t>
+  </si>
+  <si>
+    <t>toxic plant</t>
+  </si>
+  <si>
+    <t>poisonous plant</t>
+  </si>
+  <si>
+    <t>toxic fungus</t>
+  </si>
+  <si>
+    <t>poisonous fungus</t>
+  </si>
+  <si>
+    <t>Excluded keywords</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>drunkard</t>
+  </si>
+  <si>
+    <t>supplementary</t>
+  </si>
+  <si>
+    <t>drunkards</t>
+  </si>
+  <si>
+    <t>poisoner</t>
+  </si>
+  <si>
+    <t>poisoners</t>
+  </si>
+  <si>
+    <t>poisonou</t>
+  </si>
+  <si>
+    <t>poisonouses</t>
+  </si>
+  <si>
+    <t>fungou</t>
+  </si>
+  <si>
+    <t>fungous</t>
+  </si>
+  <si>
+    <t>fungouses</t>
+  </si>
+  <si>
+    <t>natural remediess</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>plants</t>
+  </si>
+  <si>
+    <t>herbals</t>
+  </si>
+  <si>
+    <t>herbal</t>
+  </si>
+  <si>
+    <t>botany</t>
+  </si>
+  <si>
+    <t>ethnobotany</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>fungi</t>
+  </si>
+  <si>
+    <t>fungus</t>
+  </si>
+  <si>
+    <t>For all generated keywords, see: https://github.com/alrichardbollans/MedicinalPlantMining/tree/main/literature_downloads/final_keywords_lists</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>foodstuff</t>
+  </si>
+  <si>
+    <t>foodstuffs</t>
+  </si>
+  <si>
+    <t>food-based</t>
+  </si>
+  <si>
+    <t>additive</t>
+  </si>
+  <si>
+    <t>additives</t>
+  </si>
+  <si>
+    <t>edible</t>
+  </si>
+  <si>
+    <t>inedible</t>
+  </si>
+  <si>
+    <t>beverages</t>
+  </si>
+  <si>
+    <t>beverage</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>drinks</t>
+  </si>
+  <si>
+    <t>drinking</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t>alcoholic</t>
+  </si>
+  <si>
+    <t>hydroalcoholic</t>
+  </si>
+  <si>
+    <t>cosmetics</t>
+  </si>
+  <si>
+    <t>cosmetic</t>
+  </si>
+  <si>
+    <t>shampoo</t>
+  </si>
+  <si>
+    <t>shampoos</t>
+  </si>
+  <si>
+    <t>shampooing</t>
+  </si>
+  <si>
+    <t>supplements</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>antioxidants</t>
+  </si>
+  <si>
+    <t>antioxidant</t>
+  </si>
+  <si>
+    <t>nutraceuticals</t>
+  </si>
+  <si>
+    <t>nutraceutical</t>
+  </si>
+  <si>
+    <t>Regulation</t>
+  </si>
+  <si>
     <t>oil</t>
   </si>
   <si>
@@ -110,252 +360,6 @@
   </si>
   <si>
     <t>candlenut</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>foodstuff</t>
-  </si>
-  <si>
-    <t>foodstuffs</t>
-  </si>
-  <si>
-    <t>food-based</t>
-  </si>
-  <si>
-    <t>additive</t>
-  </si>
-  <si>
-    <t>additives</t>
-  </si>
-  <si>
-    <t>edible</t>
-  </si>
-  <si>
-    <t>inedible</t>
-  </si>
-  <si>
-    <t>beverages</t>
-  </si>
-  <si>
-    <t>beverage</t>
-  </si>
-  <si>
-    <t>drink</t>
-  </si>
-  <si>
-    <t>drinks</t>
-  </si>
-  <si>
-    <t>drinking</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>alcohol</t>
-  </si>
-  <si>
-    <t>alcoholic</t>
-  </si>
-  <si>
-    <t>hydroalcoholic</t>
-  </si>
-  <si>
-    <t>cosmetics</t>
-  </si>
-  <si>
-    <t>cosmetic</t>
-  </si>
-  <si>
-    <t>shampoo</t>
-  </si>
-  <si>
-    <t>shampoos</t>
-  </si>
-  <si>
-    <t>shampooing</t>
-  </si>
-  <si>
-    <t>toxicology</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>toxicity</t>
-  </si>
-  <si>
-    <t>toxicological</t>
-  </si>
-  <si>
-    <t>endotoxin</t>
-  </si>
-  <si>
-    <t>toxins</t>
-  </si>
-  <si>
-    <t>toxin</t>
-  </si>
-  <si>
-    <t>endotoxins</t>
-  </si>
-  <si>
-    <t>poisonous</t>
-  </si>
-  <si>
-    <t>poison</t>
-  </si>
-  <si>
-    <t>supplements</t>
-  </si>
-  <si>
-    <t>supplement</t>
-  </si>
-  <si>
-    <t>supplementary</t>
-  </si>
-  <si>
-    <t>antioxidants</t>
-  </si>
-  <si>
-    <t>antioxidant</t>
-  </si>
-  <si>
-    <t>nutraceuticals</t>
-  </si>
-  <si>
-    <t>nutraceutical</t>
-  </si>
-  <si>
-    <t>Regulation</t>
-  </si>
-  <si>
-    <t>medicinal entity</t>
-  </si>
-  <si>
-    <t>medicinal plant</t>
-  </si>
-  <si>
-    <t>medicinal fungus</t>
-  </si>
-  <si>
-    <t>herbal medicine</t>
-  </si>
-  <si>
-    <t>herbal remedy</t>
-  </si>
-  <si>
-    <t>botanicals</t>
-  </si>
-  <si>
-    <t>ethnopharmacology</t>
-  </si>
-  <si>
-    <t>natural remedies</t>
-  </si>
-  <si>
-    <t>natural remedy</t>
-  </si>
-  <si>
-    <t>homeopathic</t>
-  </si>
-  <si>
-    <t>homeopathy</t>
-  </si>
-  <si>
-    <t>homeopath</t>
-  </si>
-  <si>
-    <t>homeopaths</t>
-  </si>
-  <si>
-    <t>traditional medicine</t>
-  </si>
-  <si>
-    <t>natural product</t>
-  </si>
-  <si>
-    <t>toxicology entity</t>
-  </si>
-  <si>
-    <t>toxic plant</t>
-  </si>
-  <si>
-    <t>poisonous plant</t>
-  </si>
-  <si>
-    <t>toxic fungus</t>
-  </si>
-  <si>
-    <t>poisonous fungus</t>
-  </si>
-  <si>
-    <t>Excluded keywords</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>drunkard</t>
-  </si>
-  <si>
-    <t>drunkards</t>
-  </si>
-  <si>
-    <t>poisoner</t>
-  </si>
-  <si>
-    <t>poisoners</t>
-  </si>
-  <si>
-    <t>poisonou</t>
-  </si>
-  <si>
-    <t>poisonouses</t>
-  </si>
-  <si>
-    <t>fungou</t>
-  </si>
-  <si>
-    <t>fungous</t>
-  </si>
-  <si>
-    <t>fungouses</t>
-  </si>
-  <si>
-    <t>natural remediess</t>
-  </si>
-  <si>
-    <t>plants</t>
-  </si>
-  <si>
-    <t>herbals</t>
-  </si>
-  <si>
-    <t>herbal</t>
-  </si>
-  <si>
-    <t>botany</t>
-  </si>
-  <si>
-    <t>ethnobotany</t>
-  </si>
-  <si>
-    <t>plant</t>
-  </si>
-  <si>
-    <t>fungi</t>
-  </si>
-  <si>
-    <t>fungus</t>
-  </si>
-  <si>
-    <t>For all generated keywords, see: https://github.com/alrichardbollans/MedicinalPlantMining/tree/main/literature_downloads/final_keywords_lists</t>
   </si>
   <si>
     <t xml:space="preserve">Products </t>
@@ -839,7 +843,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,8 +901,34 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -911,8 +941,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1082,205 +1118,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1318,79 +1177,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,18 +1219,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1427,6 +1235,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1758,10 +1569,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68E8202-612D-4596-87CD-BD56FD3C8988}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5">
+      <c r="A2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5">
+      <c r="A3" s="23"/>
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5">
+      <c r="A4" s="23"/>
+      <c r="B4" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5">
+      <c r="A5" s="23"/>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5">
+      <c r="A6" s="23"/>
+      <c r="B6" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5">
+      <c r="A7" s="23"/>
+      <c r="B7" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5">
+      <c r="A8" s="23"/>
+      <c r="B8" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5">
+      <c r="A9" s="23"/>
+      <c r="B9" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5">
+      <c r="A10" s="23"/>
+      <c r="B10" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5">
+      <c r="A11" s="23"/>
+      <c r="B11" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5">
+      <c r="A12" s="23"/>
+      <c r="B12" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5">
+      <c r="A13" s="23"/>
+      <c r="B13" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5">
+      <c r="A14" s="23"/>
+      <c r="B14" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5">
+      <c r="A15" s="23"/>
+      <c r="B15" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5">
+      <c r="A16" s="23"/>
+      <c r="B16" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5">
+      <c r="A17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5">
+      <c r="A18" s="24"/>
+      <c r="B18" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5">
+      <c r="A19" s="24"/>
+      <c r="B19" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5">
+      <c r="A20" s="24"/>
+      <c r="B20" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5">
+      <c r="A21" s="24"/>
+      <c r="B21" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5">
+      <c r="A22" s="24"/>
+      <c r="B22" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5">
+      <c r="A23" s="24"/>
+      <c r="B23" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5">
+      <c r="A24" s="24"/>
+      <c r="B24" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5">
+      <c r="A25" s="24"/>
+      <c r="B25" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEC2622-C2F4-4E46-B59B-5EF591356D13}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1771,655 +1762,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>2</v>
+      <c r="A2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="23" t="s">
-        <v>3</v>
+      <c r="A3" s="23"/>
+      <c r="B3" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="23" t="s">
-        <v>4</v>
+      <c r="A4" s="23"/>
+      <c r="B4" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="23" t="s">
-        <v>5</v>
+      <c r="A5" s="23"/>
+      <c r="B5" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="23" t="s">
-        <v>6</v>
+      <c r="A6" s="23"/>
+      <c r="B6" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="23" t="s">
-        <v>7</v>
+      <c r="A7" s="23"/>
+      <c r="B7" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="23" t="s">
-        <v>8</v>
+      <c r="A8" s="23"/>
+      <c r="B8" s="17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="34"/>
-      <c r="B9" s="23" t="s">
-        <v>9</v>
+      <c r="A9" s="23"/>
+      <c r="B9" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="23" t="s">
-        <v>10</v>
+      <c r="A10" s="23"/>
+      <c r="B10" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="23" t="s">
-        <v>11</v>
+      <c r="A11" s="23"/>
+      <c r="B11" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="23" t="s">
-        <v>12</v>
+      <c r="A13" s="23"/>
+      <c r="B13" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="23" t="s">
-        <v>13</v>
+      <c r="A14" s="23"/>
+      <c r="B14" s="17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="17"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="23" t="s">
-        <v>14</v>
+      <c r="A19" s="24"/>
+      <c r="B19" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="23" t="s">
-        <v>15</v>
+      <c r="A20" s="24"/>
+      <c r="B20" s="17" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="23" t="s">
-        <v>16</v>
+      <c r="A21" s="24"/>
+      <c r="B21" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="17"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="17"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="23"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="32"/>
-      <c r="B39" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="34"/>
-      <c r="B41" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="34"/>
-      <c r="B42" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="34"/>
-      <c r="B43" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="34"/>
-      <c r="B44" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="34"/>
-      <c r="B45" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="34"/>
-      <c r="B46" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="34"/>
-      <c r="B47" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="35"/>
-      <c r="B48" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="43"/>
-      <c r="B50" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="43"/>
-      <c r="B51" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="43"/>
-      <c r="B52" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="44"/>
-      <c r="B53" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="34"/>
-      <c r="B55" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="34"/>
-      <c r="B56" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="34"/>
-      <c r="B57" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="34"/>
-      <c r="B58" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="34"/>
-      <c r="B59" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="34"/>
-      <c r="B60" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="28"/>
-      <c r="B61" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="28"/>
-      <c r="B62" s="27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="28"/>
-      <c r="B63" s="27"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="28"/>
-      <c r="B64" s="27"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="28"/>
-      <c r="B65" s="27"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="28"/>
-      <c r="B66" s="27"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="28"/>
-      <c r="B67" s="27"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="41"/>
-      <c r="B69" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="41"/>
-      <c r="B70" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="41"/>
-      <c r="B71" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="41"/>
-      <c r="B72" s="27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="41"/>
-      <c r="B73" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="41"/>
-      <c r="B74" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15" customHeight="1">
-      <c r="A75" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B75" s="16"/>
-    </row>
-    <row r="76" spans="1:2" ht="15" customHeight="1">
-      <c r="A76" s="37"/>
-      <c r="B76" s="17"/>
-    </row>
-    <row r="77" spans="1:2" ht="15" customHeight="1">
-      <c r="A77" s="38"/>
-      <c r="B77" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="A2:A24"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A40:A48"/>
-    <mergeCell ref="A49:A53"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEC2622-C2F4-4E46-B59B-5EF591356D13}">
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="50" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="23"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="23"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="23"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="23"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="23"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="23"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="23"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="23"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="23"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="34"/>
-      <c r="B29" s="23"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="34"/>
-      <c r="B30" s="23"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="34"/>
-      <c r="B31" s="23"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A2:A24"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A2:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2428,77 +1913,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504ECD14-1028-4DF2-B68E-67690E2A0757}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" style="21" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="21"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>84</v>
+      <c r="A1" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>85</v>
+      <c r="A2" s="21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>86</v>
+      <c r="A3" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-    </row>
     <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>95</v>
+      <c r="A13" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="21" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2510,68 +2004,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3AB4F0-2F9A-40F3-A0F8-CB780FBC7E08}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" ht="16.5">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="15"/>
+      <c r="A2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="37"/>
-      <c r="B3" s="17" t="s">
-        <v>98</v>
+      <c r="A3" s="26"/>
+      <c r="B3" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="37"/>
-      <c r="B4" s="17" t="s">
-        <v>99</v>
+      <c r="A4" s="26"/>
+      <c r="B4" s="21" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="37"/>
-      <c r="B5" s="17" t="s">
-        <v>100</v>
+      <c r="A5" s="26"/>
+      <c r="B5" s="21" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="20"/>
-      <c r="B6" s="17" t="s">
-        <v>101</v>
+      <c r="A6" s="26"/>
+      <c r="B6" s="21" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>103</v>
+      <c r="A7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2582,7 +2076,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2592,7 +2086,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2601,6 +2095,278 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B1E54F-6F8C-426F-8D14-8902489B6F76}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="23"/>
+      <c r="B5" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30.75">
+      <c r="A6" s="23"/>
+      <c r="B6" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="23"/>
+      <c r="B9" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="23"/>
+      <c r="B10" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="24"/>
+      <c r="B12" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="24"/>
+      <c r="B16" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="24"/>
+      <c r="B17" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30.75">
+      <c r="A19" s="24"/>
+      <c r="B19" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30.75">
+      <c r="A23" s="23"/>
+      <c r="B23" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30.75">
+      <c r="A24" s="23"/>
+      <c r="B24" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30.75">
+      <c r="A25" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30.75">
+      <c r="A26" s="24"/>
+      <c r="B26" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30.75">
+      <c r="A27" s="24"/>
+      <c r="B27" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30.75">
+      <c r="A28" s="24"/>
+      <c r="B28" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30.75">
+      <c r="A29" s="24"/>
+      <c r="B29" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30.75">
+      <c r="A30" s="24"/>
+      <c r="B30" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30.75">
+      <c r="A31" s="24"/>
+      <c r="B31" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="26"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="26"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="24"/>
+      <c r="B36" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="24"/>
+      <c r="B37" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="24"/>
+      <c r="B38" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="24"/>
+      <c r="B39" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30.75">
+      <c r="A40" s="24"/>
+      <c r="B40" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7D6861-28C7-420F-875F-26E79D901158}">
   <dimension ref="A1:D67"/>
   <sheetViews>
@@ -2617,735 +2383,735 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="57" t="s">
-        <v>108</v>
+      <c r="A2" s="39" t="s">
+        <v>109</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="58" t="s">
         <v>110</v>
       </c>
+      <c r="D2" s="40" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="43"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="49"/>
+        <v>113</v>
+      </c>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="43"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="49"/>
+        <v>115</v>
+      </c>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="43"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="49"/>
+        <v>117</v>
+      </c>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="43"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="50"/>
+        <v>118</v>
+      </c>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="43"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="51" t="s">
         <v>120</v>
       </c>
+      <c r="D7" s="32" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="43"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="52"/>
+        <v>123</v>
+      </c>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="43"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="52"/>
+        <v>125</v>
+      </c>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="43"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="52"/>
+        <v>127</v>
+      </c>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="43"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="6" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="53"/>
+        <v>128</v>
+      </c>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="43"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="48" t="s">
         <v>130</v>
       </c>
+      <c r="D12" s="29" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="43"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="49"/>
+        <v>133</v>
+      </c>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="43"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="49"/>
+        <v>135</v>
+      </c>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="43"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="4" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="50"/>
+        <v>136</v>
+      </c>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="43"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="51" t="s">
         <v>138</v>
       </c>
+      <c r="D16" s="32" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="43"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="52"/>
+        <v>141</v>
+      </c>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="43"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>75</v>
+        <v>143</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="43"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="49"/>
+        <v>145</v>
+      </c>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="43"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="49"/>
+        <v>147</v>
+      </c>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="43"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="4" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="50"/>
+        <v>148</v>
+      </c>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="43"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="48" t="s">
         <v>150</v>
       </c>
+      <c r="D22" s="29" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="43"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="49"/>
+        <v>153</v>
+      </c>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="44"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="50"/>
+        <v>154</v>
+      </c>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="54" t="s">
-        <v>154</v>
+      <c r="A25" s="36" t="s">
+        <v>155</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="51" t="s">
         <v>157</v>
       </c>
+      <c r="D25" s="32" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="55"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="52"/>
+        <v>160</v>
+      </c>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="55"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="6" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="53"/>
+        <v>161</v>
+      </c>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="55"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="48" t="s">
         <v>163</v>
       </c>
+      <c r="D28" s="29" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="55"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="49"/>
+        <v>166</v>
+      </c>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="56"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="4" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="50"/>
+        <v>167</v>
+      </c>
+      <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="54" t="s">
-        <v>167</v>
+      <c r="A31" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="51" t="s">
         <v>170</v>
       </c>
+      <c r="D31" s="32" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="55"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" s="52"/>
+        <v>173</v>
+      </c>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="55"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="52"/>
+        <v>175</v>
+      </c>
+      <c r="D33" s="33"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="55"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34" s="52"/>
+      <c r="D34" s="33"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="55"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="6" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D35" s="53"/>
+        <v>177</v>
+      </c>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="55"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="3" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="48" t="s">
         <v>178</v>
       </c>
+      <c r="D36" s="29" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="55"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D37" s="49"/>
+        <v>180</v>
+      </c>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="55"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="5" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" s="51" t="s">
         <v>181</v>
       </c>
+      <c r="D38" s="32" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="56"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="6" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D39" s="53"/>
+        <v>183</v>
+      </c>
+      <c r="D39" s="34"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="42" t="s">
-        <v>183</v>
+      <c r="A40" s="27" t="s">
+        <v>184</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D40" s="48" t="s">
         <v>186</v>
       </c>
+      <c r="D40" s="29" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="43"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="4" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D41" s="50"/>
+        <v>188</v>
+      </c>
+      <c r="D41" s="31"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="43"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D42" s="51" t="s">
         <v>190</v>
       </c>
+      <c r="D42" s="32" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="43"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D43" s="52"/>
+        <v>186</v>
+      </c>
+      <c r="D43" s="33"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="43"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="6" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D44" s="53"/>
+        <v>193</v>
+      </c>
+      <c r="D44" s="34"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="43"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="8" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="43"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D46" s="51" t="s">
         <v>196</v>
       </c>
+      <c r="D46" s="32" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="43"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D47" s="52"/>
+        <v>199</v>
+      </c>
+      <c r="D47" s="33"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="44"/>
+      <c r="A48" s="35"/>
       <c r="B48" s="10" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D48" s="53"/>
+        <v>200</v>
+      </c>
+      <c r="D48" s="34"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="42" t="s">
-        <v>41</v>
+      <c r="A49" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D49" s="48" t="s">
         <v>201</v>
       </c>
+      <c r="D49" s="29" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="43"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D50" s="49"/>
+        <v>204</v>
+      </c>
+      <c r="D50" s="30"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="43"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D51" s="51" t="s">
-        <v>43</v>
+        <v>206</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="43"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52" s="52"/>
+        <v>208</v>
+      </c>
+      <c r="D52" s="33"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="44"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="6" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D53" s="53"/>
+        <v>209</v>
+      </c>
+      <c r="D53" s="34"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="42" t="s">
-        <v>209</v>
+      <c r="A54" s="27" t="s">
+        <v>210</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D54" s="48" t="s">
         <v>212</v>
       </c>
+      <c r="D54" s="29" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="43"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D55" s="49"/>
+        <v>215</v>
+      </c>
+      <c r="D55" s="30"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="43"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D56" s="50"/>
+        <v>216</v>
+      </c>
+      <c r="D56" s="31"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="43"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D57" s="51" t="s">
-        <v>52</v>
+        <v>218</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="43"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D58" s="52"/>
+        <v>220</v>
+      </c>
+      <c r="D58" s="33"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="43"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="5" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D59" s="52"/>
+        <v>221</v>
+      </c>
+      <c r="D59" s="33"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="43"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="6" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D60" s="53"/>
+        <v>222</v>
+      </c>
+      <c r="D60" s="34"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="42" t="s">
-        <v>222</v>
+      <c r="A61" s="27" t="s">
+        <v>223</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D61" s="48" t="s">
         <v>225</v>
       </c>
+      <c r="D61" s="29" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="43"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D62" s="49"/>
+        <v>228</v>
+      </c>
+      <c r="D62" s="30"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="43"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D63" s="50"/>
+        <v>229</v>
+      </c>
+      <c r="D63" s="31"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="43"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D64" s="51" t="s">
         <v>231</v>
       </c>
+      <c r="D64" s="32" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="43"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D65" s="52"/>
+        <v>234</v>
+      </c>
+      <c r="D65" s="33"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="43"/>
+      <c r="A66" s="28"/>
       <c r="B66" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D66" s="48" t="s">
         <v>236</v>
       </c>
+      <c r="D66" s="29" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="43"/>
+      <c r="A67" s="28"/>
       <c r="B67" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D67" s="49"/>
+        <v>239</v>
+      </c>
+      <c r="D67" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="28">

--- a/literature_downloads/inputs/list_keywords.xlsx
+++ b/literature_downloads/inputs/list_keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rbgkew-my.sharepoint.com/personal/f_civita_kew_org/Documents/Documents/work on corpus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C0D9DE4-DF2A-46AE-A6BC-A9037FF9DBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8A42F7A-E0B3-4335-A290-C08566EF2FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="2" xr2:uid="{187C7D33-C53D-4D11-9B78-D2DF7A6923CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{187C7D33-C53D-4D11-9B78-D2DF7A6923CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Product related" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="241">
   <si>
     <t>Keyword Type</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>unknown</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
   <si>
     <t>plants</t>
@@ -1213,33 +1216,36 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,10 +1255,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1913,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504ECD14-1028-4DF2-B68E-67690E2A0757}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1993,6 +1996,11 @@
     <row r="14" spans="1:1">
       <c r="A14" s="21" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="21" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2024,43 +2032,43 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="26"/>
       <c r="B3" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="26"/>
       <c r="B4" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="26"/>
       <c r="B5" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="26"/>
       <c r="B6" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2094,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2118,160 +2126,160 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23"/>
       <c r="B3" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="23"/>
       <c r="B4" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75">
       <c r="A5" s="23"/>
       <c r="B5" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30.75">
       <c r="A6" s="23"/>
       <c r="B6" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="23"/>
       <c r="B7" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="23"/>
       <c r="B8" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="23"/>
       <c r="B9" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="23"/>
       <c r="B10" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30.75">
       <c r="A11" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="24"/>
       <c r="B12" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="24"/>
       <c r="B13" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="24"/>
       <c r="B14" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="24"/>
       <c r="B15" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="24"/>
       <c r="B16" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="24"/>
       <c r="B17" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="24"/>
       <c r="B18" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30.75">
       <c r="A19" s="24"/>
       <c r="B19" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30.75">
       <c r="A20" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="23"/>
       <c r="B21" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="23"/>
       <c r="B22" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30.75">
       <c r="A23" s="23"/>
       <c r="B23" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30.75">
       <c r="A24" s="23"/>
       <c r="B24" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30.75">
       <c r="A25" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30.75">
       <c r="A26" s="24"/>
       <c r="B26" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30.75">
@@ -2283,30 +2291,30 @@
     <row r="28" spans="1:2" ht="30.75">
       <c r="A28" s="24"/>
       <c r="B28" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30.75">
       <c r="A29" s="24"/>
       <c r="B29" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30.75">
       <c r="A30" s="24"/>
       <c r="B30" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30.75">
       <c r="A31" s="24"/>
       <c r="B31" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2317,40 +2325,40 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="24"/>
       <c r="B36" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="24"/>
       <c r="B37" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="24"/>
       <c r="B38" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="24"/>
       <c r="B39" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30.75">
       <c r="A40" s="24"/>
       <c r="B40" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2383,61 +2391,61 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="39" t="s">
-        <v>109</v>
+      <c r="A2" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="40" t="s">
         <v>111</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="28"/>
       <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="30"/>
+        <v>114</v>
+      </c>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="28"/>
       <c r="B4" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="30"/>
+        <v>116</v>
+      </c>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="28"/>
       <c r="B5" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="30"/>
+        <v>118</v>
+      </c>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="28"/>
@@ -2445,51 +2453,51 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="31"/>
+        <v>119</v>
+      </c>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="28"/>
       <c r="B7" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="32" t="s">
         <v>121</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="28"/>
       <c r="B8" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="33"/>
+        <v>124</v>
+      </c>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="33"/>
+        <v>126</v>
+      </c>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="28"/>
@@ -2497,105 +2505,105 @@
         <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="34"/>
+        <v>129</v>
+      </c>
+      <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="28"/>
       <c r="B12" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="29" t="s">
         <v>131</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="28"/>
       <c r="B13" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="30"/>
+        <v>134</v>
+      </c>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="28"/>
       <c r="B14" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="30"/>
+        <v>136</v>
+      </c>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="28"/>
       <c r="B15" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="31"/>
+        <v>137</v>
+      </c>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="28"/>
       <c r="B16" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="32" t="s">
         <v>139</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="28"/>
       <c r="B17" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="33"/>
+        <v>142</v>
+      </c>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="28"/>
       <c r="B18" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="28"/>
       <c r="B19" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="30"/>
+        <v>146</v>
+      </c>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="28"/>
       <c r="B20" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="30"/>
+        <v>148</v>
+      </c>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="28"/>
@@ -2603,385 +2611,385 @@
         <v>39</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="31"/>
+        <v>149</v>
+      </c>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="28"/>
       <c r="B22" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="29" t="s">
         <v>151</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="28"/>
       <c r="B23" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="30"/>
+        <v>154</v>
+      </c>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="35"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="31"/>
+        <v>155</v>
+      </c>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="36" t="s">
-        <v>155</v>
+      <c r="A25" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="32" t="s">
         <v>158</v>
       </c>
+      <c r="D25" s="33" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="33"/>
+        <v>161</v>
+      </c>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="37"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="34"/>
+        <v>162</v>
+      </c>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="37"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" s="29" t="s">
         <v>164</v>
       </c>
+      <c r="D28" s="36" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="37"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="30"/>
+        <v>167</v>
+      </c>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="31"/>
+        <v>168</v>
+      </c>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="36" t="s">
-        <v>168</v>
+      <c r="A31" s="37" t="s">
+        <v>169</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="32" t="s">
         <v>171</v>
       </c>
+      <c r="D31" s="33" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="37"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="33"/>
+        <v>174</v>
+      </c>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="37"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D33" s="33"/>
+        <v>176</v>
+      </c>
+      <c r="D33" s="34"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="37"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="33"/>
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="37"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" s="34"/>
+        <v>178</v>
+      </c>
+      <c r="D35" s="35"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="37"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="29" t="s">
         <v>179</v>
       </c>
+      <c r="D36" s="36" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="37"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D37" s="30"/>
+        <v>181</v>
+      </c>
+      <c r="D37" s="31"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="37"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D38" s="32" t="s">
         <v>182</v>
       </c>
+      <c r="D38" s="33" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="38"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" s="34"/>
+        <v>184</v>
+      </c>
+      <c r="D39" s="35"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="27" t="s">
-        <v>184</v>
+      <c r="A40" s="40" t="s">
+        <v>185</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D40" s="29" t="s">
         <v>187</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="28"/>
       <c r="B41" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="31"/>
+        <v>189</v>
+      </c>
+      <c r="D41" s="32"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="28"/>
       <c r="B42" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D42" s="32" t="s">
         <v>191</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="28"/>
       <c r="B43" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" s="33"/>
+        <v>187</v>
+      </c>
+      <c r="D43" s="34"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="28"/>
       <c r="B44" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D44" s="34"/>
+        <v>194</v>
+      </c>
+      <c r="D44" s="35"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="28"/>
       <c r="B45" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="28"/>
       <c r="B46" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D46" s="32" t="s">
         <v>197</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="28"/>
       <c r="B47" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D47" s="33"/>
+        <v>200</v>
+      </c>
+      <c r="D47" s="34"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="35"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D48" s="34"/>
+        <v>201</v>
+      </c>
+      <c r="D48" s="35"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="27" t="s">
-        <v>88</v>
+      <c r="A49" s="40" t="s">
+        <v>89</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D49" s="29" t="s">
         <v>202</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="28"/>
       <c r="B50" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D50" s="30"/>
+        <v>205</v>
+      </c>
+      <c r="D50" s="31"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="28"/>
       <c r="B51" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>90</v>
+        <v>207</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="28"/>
       <c r="B52" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D52" s="33"/>
+        <v>209</v>
+      </c>
+      <c r="D52" s="34"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="35"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D53" s="34"/>
+        <v>210</v>
+      </c>
+      <c r="D53" s="35"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="27" t="s">
-        <v>210</v>
+      <c r="A54" s="40" t="s">
+        <v>211</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D54" s="29" t="s">
         <v>213</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="28"/>
       <c r="B55" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D55" s="30"/>
+        <v>216</v>
+      </c>
+      <c r="D55" s="31"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="28"/>
@@ -2989,31 +2997,31 @@
         <v>20</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D56" s="31"/>
+        <v>217</v>
+      </c>
+      <c r="D56" s="32"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="28"/>
       <c r="B57" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D57" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="28"/>
       <c r="B58" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D58" s="33"/>
+        <v>221</v>
+      </c>
+      <c r="D58" s="34"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="28"/>
@@ -3021,9 +3029,9 @@
         <v>23</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D59" s="33"/>
+        <v>222</v>
+      </c>
+      <c r="D59" s="34"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="28"/>
@@ -3031,33 +3039,33 @@
         <v>24</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D60" s="34"/>
+        <v>223</v>
+      </c>
+      <c r="D60" s="35"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="27" t="s">
-        <v>223</v>
+      <c r="A61" s="40" t="s">
+        <v>224</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D61" s="29" t="s">
         <v>226</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="28"/>
       <c r="B62" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D62" s="30"/>
+        <v>229</v>
+      </c>
+      <c r="D62" s="31"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="28"/>
@@ -3065,56 +3073,77 @@
         <v>50</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D63" s="31"/>
+        <v>230</v>
+      </c>
+      <c r="D63" s="32"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="28"/>
       <c r="B64" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D64" s="32" t="s">
         <v>232</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="28"/>
       <c r="B65" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D65" s="33"/>
+        <v>235</v>
+      </c>
+      <c r="D65" s="34"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="28"/>
       <c r="B66" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D66" s="29" t="s">
         <v>237</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="28"/>
       <c r="B67" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D67" s="30"/>
+        <v>240</v>
+      </c>
+      <c r="D67" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="A40:A48"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
     <mergeCell ref="A2:A24"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D7:D11"/>
@@ -3122,27 +3151,6 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="D22:D24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A40:A48"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3375,15 +3383,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="7e222655-5cb0-4b32-888a-91ebc360fcc0" xsi:nil="true"/>
@@ -3394,14 +3393,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37FAFFB1-89EE-46E4-961C-CFA2FC4A0170}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F2A5B57-A40D-40F6-87C5-CC9A295A0954}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71069340-4396-4C49-8F99-301C71FE424D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71069340-4396-4C49-8F99-301C71FE424D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F2A5B57-A40D-40F6-87C5-CC9A295A0954}"/>
 </file>